--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,9 +1220,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+    <row r="52" spans="1:2" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>

--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,13 +1220,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>101</v>
-      </c>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>

--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -802,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,4 +1632,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1AB837-E992-43BE-B9BA-580CE18AC062}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>